--- a/biology/Botanique/Echium/Echium.xlsx
+++ b/biology/Botanique/Echium/Echium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Echium, les Vipérines, regroupe environ 60 espèces de plantes herbacées de la famille des Boraginacées originaires d'Europe, d'Afrique, d'Asie occidentale et de Macaronésie où il atteint sa plus grande diversité.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (3 mai 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (3 mai 2011) :
 Echium acanthocarpum
 Echium aculeatum
 Echium albicans
